--- a/조정분개_입력템플릿_ToBe.xlsx
+++ b/조정분개_입력템플릿_ToBe.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hwan-Hee Hyeong\Documents\OneDrive\문서\2025 Others\st_test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hhhye\OneDrive\문서\2025 Others\st_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24690" windowHeight="11505" tabRatio="721" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24694" windowHeight="11503" tabRatio="721" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="CAJE00_투자자본상계" sheetId="2" r:id="rId1"/>
@@ -679,13 +679,13 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="6" width="20" customWidth="1"/>
-    <col min="11" max="11" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.2109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -705,7 +705,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -726,7 +726,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -746,7 +746,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -766,7 +766,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -786,7 +786,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -806,7 +806,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -839,12 +839,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="6" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -878,12 +878,12 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="6" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -903,7 +903,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -923,7 +923,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -943,7 +943,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -963,7 +963,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -994,16 +994,16 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="6" width="20" customWidth="1"/>
     <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1023,7 +1023,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1043,7 +1043,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1063,7 +1063,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1083,7 +1083,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -1103,7 +1103,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -1123,22 +1123,22 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="3"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="3"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="3"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="3"/>
@@ -1157,12 +1157,12 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="6" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1182,7 +1182,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1202,7 +1202,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1222,7 +1222,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1242,7 +1242,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -1262,7 +1262,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -1282,7 +1282,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -1317,12 +1317,12 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="6" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1342,7 +1342,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1362,7 +1362,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1394,12 +1394,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="6" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1430,15 +1430,15 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:F5"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="6" width="23.25" customWidth="1"/>
+    <col min="1" max="6" width="23.2109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1458,7 +1458,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1478,7 +1478,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1498,7 +1498,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1518,7 +1518,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -1550,15 +1550,15 @@
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="6" width="19.75" customWidth="1"/>
+    <col min="1" max="6" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1578,7 +1578,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1599,7 +1599,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1621,7 +1621,7 @@
       </c>
       <c r="I3" s="3"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1643,7 +1643,7 @@
       </c>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -1664,7 +1664,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -1685,7 +1685,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -1708,7 +1708,7 @@
       <c r="K7" s="3"/>
       <c r="M7" s="3"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -1728,7 +1728,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -1751,7 +1751,7 @@
       <c r="K9" s="3"/>
       <c r="M9" s="3"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -1771,7 +1771,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -1806,12 +1806,12 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="6" width="19.75" customWidth="1"/>
+    <col min="1" max="6" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1831,7 +1831,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1851,7 +1851,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1872,12 +1872,12 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="C4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="C5" s="2" t="s">
         <v>55</v>
       </c>

--- a/조정분개_입력템플릿_ToBe.xlsx
+++ b/조정분개_입력템플릿_ToBe.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hhhye\OneDrive\문서\2025 Others\st_test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hwan-Hee Hyeong\Documents\OneDrive\문서\2025 Others\st_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24694" windowHeight="11503" tabRatio="721" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24690" windowHeight="11505" tabRatio="721" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="CAJE00_투자자본상계" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="76">
   <si>
     <t>모회사</t>
   </si>
@@ -121,9 +121,6 @@
   </si>
   <si>
     <t>매출원가</t>
-  </si>
-  <si>
-    <t>전기 미실현이익(이익잉여금)</t>
   </si>
   <si>
     <t>40200</t>
@@ -275,7 +272,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>전기 미실현이익 실현</t>
+    <t>재고 미실현</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -676,16 +673,16 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="6" width="20" customWidth="1"/>
-    <col min="11" max="11" width="9.2109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -705,7 +702,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -726,7 +723,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -746,7 +743,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -766,15 +763,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
@@ -783,10 +780,10 @@
         <v>-800000</v>
       </c>
       <c r="F5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -806,15 +803,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="D7" t="s">
         <v>10</v>
@@ -823,7 +820,7 @@
         <v>-1600000</v>
       </c>
       <c r="F7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -839,12 +836,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="6" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -875,15 +872,15 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="6" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -903,7 +900,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -923,7 +920,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -943,7 +940,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -963,7 +960,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -993,17 +990,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="6" width="20" customWidth="1"/>
     <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1023,7 +1020,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1040,10 +1037,10 @@
         <v>3000000</v>
       </c>
       <c r="F2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1060,18 +1057,18 @@
         <v>3000000</v>
       </c>
       <c r="F3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
       <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" t="s">
         <v>32</v>
-      </c>
-      <c r="C4" t="s">
-        <v>33</v>
       </c>
       <c r="D4" t="s">
         <v>28</v>
@@ -1080,10 +1077,10 @@
         <v>10000000</v>
       </c>
       <c r="F4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -1100,18 +1097,18 @@
         <v>6000000</v>
       </c>
       <c r="F5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>36</v>
-      </c>
-      <c r="C6" t="s">
-        <v>37</v>
       </c>
       <c r="D6" t="s">
         <v>28</v>
@@ -1120,25 +1117,25 @@
         <v>4000000</v>
       </c>
       <c r="F6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="3"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="3"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="3"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="3"/>
@@ -1146,6 +1143,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1154,15 +1152,15 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="6" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1182,15 +1180,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" t="s">
         <v>39</v>
-      </c>
-      <c r="C2" t="s">
-        <v>40</v>
       </c>
       <c r="D2" t="s">
         <v>23</v>
@@ -1199,10 +1197,10 @@
         <v>5000000</v>
       </c>
       <c r="F2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1219,10 +1217,10 @@
         <v>5000000</v>
       </c>
       <c r="F3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1239,18 +1237,18 @@
         <v>-1000000</v>
       </c>
       <c r="F4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>0</v>
       </c>
       <c r="B5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" t="s">
         <v>44</v>
-      </c>
-      <c r="C5" t="s">
-        <v>45</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
@@ -1259,18 +1257,18 @@
         <v>-1000000</v>
       </c>
       <c r="F5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>0</v>
       </c>
       <c r="B6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" t="s">
         <v>47</v>
-      </c>
-      <c r="C6" t="s">
-        <v>48</v>
       </c>
       <c r="D6" t="s">
         <v>28</v>
@@ -1279,18 +1277,18 @@
         <v>1000000</v>
       </c>
       <c r="F6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>0</v>
       </c>
       <c r="B7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" t="s">
         <v>44</v>
-      </c>
-      <c r="C7" t="s">
-        <v>45</v>
       </c>
       <c r="D7" t="s">
         <v>28</v>
@@ -1299,7 +1297,7 @@
         <v>-1000000</v>
       </c>
       <c r="F7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1317,12 +1315,12 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="6" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1342,15 +1340,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" t="s">
         <v>49</v>
-      </c>
-      <c r="C2" t="s">
-        <v>50</v>
       </c>
       <c r="D2" t="s">
         <v>28</v>
@@ -1359,10 +1357,10 @@
         <v>2000000</v>
       </c>
       <c r="F2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1379,7 +1377,7 @@
         <v>-2000000</v>
       </c>
       <c r="F3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1394,12 +1392,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="6" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1429,16 +1427,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="6" width="23.2109375" customWidth="1"/>
+    <col min="1" max="6" width="23.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1458,7 +1456,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1475,18 +1473,18 @@
         <v>160000</v>
       </c>
       <c r="F2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" t="s">
         <v>44</v>
-      </c>
-      <c r="C3" t="s">
-        <v>45</v>
       </c>
       <c r="D3" t="s">
         <v>23</v>
@@ -1495,18 +1493,18 @@
         <v>160000</v>
       </c>
       <c r="F3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
       <c r="B4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" t="s">
         <v>47</v>
-      </c>
-      <c r="C4" t="s">
-        <v>48</v>
       </c>
       <c r="D4" t="s">
         <v>28</v>
@@ -1515,18 +1513,18 @@
         <v>-160000</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1</v>
       </c>
       <c r="B5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" t="s">
         <v>44</v>
-      </c>
-      <c r="C5" t="s">
-        <v>45</v>
       </c>
       <c r="D5" t="s">
         <v>28</v>
@@ -1536,7 +1534,7 @@
         <v>160000</v>
       </c>
       <c r="F5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1550,15 +1548,15 @@
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="6" width="19.7109375" customWidth="1"/>
+    <col min="1" max="6" width="19.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1578,7 +1576,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1586,42 +1584,42 @@
         <v>15</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E2" s="3">
         <f>-E3</f>
         <v>144000</v>
       </c>
       <c r="F2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E3" s="3">
         <f>CAJE00_투자자본상계!E5*0.18</f>
         <v>-144000</v>
       </c>
       <c r="F3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I3" s="3"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1629,94 +1627,94 @@
         <v>15</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E4" s="3">
         <f>-E5</f>
         <v>-28800</v>
       </c>
       <c r="F4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E5" s="3">
         <f>-E3/5</f>
         <v>28800</v>
       </c>
       <c r="F5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" t="s">
         <v>69</v>
-      </c>
-      <c r="D6" t="s">
-        <v>70</v>
       </c>
       <c r="E6" s="3">
         <f>-E4</f>
         <v>28800</v>
       </c>
       <c r="F6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="D7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E7" s="3">
         <f>E5</f>
         <v>28800</v>
       </c>
       <c r="F7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K7" s="3"/>
       <c r="M7" s="3"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>1</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>69</v>
       </c>
       <c r="D8" t="s">
         <v>23</v>
@@ -1725,10 +1723,10 @@
         <v>-600000</v>
       </c>
       <c r="F8" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -1736,7 +1734,7 @@
         <v>15</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D9" t="s">
         <v>23</v>
@@ -1746,20 +1744,20 @@
         <v>-600000</v>
       </c>
       <c r="F9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K9" s="3"/>
       <c r="M9" s="3"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>0</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>69</v>
       </c>
       <c r="D10" t="s">
         <v>28</v>
@@ -1768,18 +1766,18 @@
         <v>720000</v>
       </c>
       <c r="F10" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>1</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D11" t="s">
         <v>28</v>
@@ -1788,7 +1786,7 @@
         <v>720000</v>
       </c>
       <c r="F11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1806,12 +1804,12 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="6" width="19.7109375" customWidth="1"/>
+    <col min="1" max="6" width="19.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1831,7 +1829,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1839,47 +1837,47 @@
         <v>15</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E2">
         <v>500000</v>
       </c>
       <c r="F2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="D3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E3">
         <f>-E2</f>
         <v>-500000</v>
       </c>
       <c r="F3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
